--- a/Networking/Port_Opening_Details.xlsx
+++ b/Networking/Port_Opening_Details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnk8s\Networking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chordia\Desktop\github\learnk8s\Networking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E458F6A6-EE2C-45C8-9ACA-A4E7BA9547CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15A6E7D-D1CD-477A-96E8-C4AF37439D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29EE4D3B-3EF1-4A52-BAAA-A8EACD3865EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29EE4D3B-3EF1-4A52-BAAA-A8EACD3865EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>master</t>
   </si>
@@ -61,13 +61,19 @@
   </si>
   <si>
     <t>Details</t>
+  </si>
+  <si>
+    <t>6443*</t>
+  </si>
+  <si>
+    <t>https://kubernetes.io/docs/setup/production-environment/tools/kubeadm/install-kubeadm/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +85,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,10 +136,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,8 +148,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,18 +469,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5469C311-B887-4B88-A275-145835D5C667}">
-  <dimension ref="A3:C9"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -469,18 +505,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>6443</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +527,7 @@
         <v>10250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -501,8 +537,11 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>10259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -513,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -524,7 +563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -536,7 +575,13 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0A30E430-4987-4454-A31F-ED7477447136}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>